--- a/NotasGeologiaPublicationList_Updated.xlsx
+++ b/NotasGeologiaPublicationList_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\Notas-Geologicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9D8DA-263F-499F-B69D-0435FD57CEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EF645-4EFA-4C0F-96E8-2534A5CB06CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="4323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="4350">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -13296,6 +13296,87 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/minerals.html#MarinoN2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audy Salcedo y Ramón Uzcátegui </t>
+  </si>
+  <si>
+    <t>La universidad en tiempo de autoritarismo: ¿exilio o permanencia? Voces del profesorado Venezolano.</t>
+  </si>
+  <si>
+    <t>La universidad en tiempos de autoritarismo: ¿exilio o permanencia? Voces del profesorado venezolano. R.A. Uzcátegui Pacheco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Figuera. Héroes de la Industria Petrolera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexis Zavala </t>
+  </si>
+  <si>
+    <t>Petrorenova, Revista de la Energía, Volumen 4, Número 30, Febrero 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cretácico Venezolano: La joya estratégica del subsuelo nacional. Una ventaja geológica probada que supera el estándar nacional. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenny Medina </t>
+  </si>
+  <si>
+    <t>Petrorenova, Revista de la Energía, Volumen 4, Número 30, , Febrero 2026</t>
+  </si>
+  <si>
+    <t>Los manglares. Incubadores de la vida.</t>
+  </si>
+  <si>
+    <t>Carta Ecológica de Lagoven S.A., Septiembre – Octubre, 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first big oil hunt. Venezuela 1911 – 1916. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnold, R.; Macready, G. A.; Barrington, T. W. </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 121, Agosto 2016</t>
+  </si>
+  <si>
+    <t>Los peces: Diversidad en el Paleo – Caribe y en el Paleo – Orinoco.</t>
+  </si>
+  <si>
+    <t>Orangel A. Aguilera Socorro</t>
+  </si>
+  <si>
+    <t>Venezuela Paleontológica: Evolución de la biodiversidad en el pasado geológico edited by Sánchez – Villagra, Marcel R., Universitat Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global sea level changes and sedimentological characterization of Cretaceous carbonate deposits in Gulf of Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinto, D.; Moreno, N.; Padrón, V. </t>
+  </si>
+  <si>
+    <t>PDVSA lecture, January 23, 2015</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#SalcedoAUzcategui2026</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#ZavalaA2026</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#MedinaK2026</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#Carta1982a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/MacreadyARBarringtonTW2016</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#AguileraO2012</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PintoDetal2015</t>
   </si>
 </sst>
 </file>
@@ -13706,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
   <dimension ref="A1:H1230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1172" sqref="A1172"/>
+    <sheetView tabSelected="1" topLeftCell="A1167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1179" sqref="A1179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13717,7 +13798,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" customWidth="1"/>
     <col min="6" max="6" width="127.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="127.109375" customWidth="1"/>
+    <col min="7" max="7" width="126.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -42393,13 +42474,13 @@
         <v>4274</v>
       </c>
       <c r="G1152" s="1" t="str">
-        <f t="shared" ref="G1152:G1178" si="37">HYPERLINK(F1152)</f>
+        <f t="shared" ref="G1152:G1188" si="37">HYPERLINK(F1152)</f>
         <v>https://mariantoc.github.io/ecology.html#HoyosJ1982</v>
       </c>
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153">
-        <f t="shared" ref="A1153:A1178" si="38">A1152+1</f>
+        <f t="shared" ref="A1153:A1185" si="38">A1152+1</f>
         <v>1152</v>
       </c>
       <c r="B1153" t="s">
@@ -42889,7 +42970,7 @@
       <c r="E1172" t="s">
         <v>4296</v>
       </c>
-      <c r="F1172" s="8" t="s">
+      <c r="F1172" t="s">
         <v>4316</v>
       </c>
       <c r="G1172" s="1" t="str">
@@ -42914,7 +42995,7 @@
       <c r="E1173" t="s">
         <v>4299</v>
       </c>
-      <c r="F1173" s="8" t="s">
+      <c r="F1173" t="s">
         <v>4317</v>
       </c>
       <c r="G1173" s="1" t="str">
@@ -42939,7 +43020,7 @@
       <c r="E1174" t="s">
         <v>4302</v>
       </c>
-      <c r="F1174" s="8" t="s">
+      <c r="F1174" t="s">
         <v>4318</v>
       </c>
       <c r="G1174" s="1" t="str">
@@ -42964,7 +43045,7 @@
       <c r="E1175" t="s">
         <v>4305</v>
       </c>
-      <c r="F1175" s="8" t="s">
+      <c r="F1175" t="s">
         <v>4319</v>
       </c>
       <c r="G1175" s="1" t="str">
@@ -42989,7 +43070,7 @@
       <c r="E1176" t="s">
         <v>4308</v>
       </c>
-      <c r="F1176" s="8" t="s">
+      <c r="F1176" t="s">
         <v>4320</v>
       </c>
       <c r="G1176" s="1" t="str">
@@ -43014,7 +43095,7 @@
       <c r="E1177" t="s">
         <v>4311</v>
       </c>
-      <c r="F1177" s="8" t="s">
+      <c r="F1177" t="s">
         <v>4321</v>
       </c>
       <c r="G1177" s="1" t="str">
@@ -43039,7 +43120,7 @@
       <c r="E1178" t="s">
         <v>4314</v>
       </c>
-      <c r="F1178" s="8" t="s">
+      <c r="F1178" t="s">
         <v>4322</v>
       </c>
       <c r="G1178" s="1" t="str">
@@ -43048,111 +43129,251 @@
       </c>
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1179" s="7" t="s">
-        <v>4315</v>
+      <c r="A1179">
+        <f t="shared" si="38"/>
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D1179">
+        <v>2026</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F1179" s="8" t="s">
+        <v>4343</v>
+      </c>
+      <c r="G1179" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/biography.html#SalcedoAUzcategui2026</v>
       </c>
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1180" s="7" t="s">
-        <v>4315</v>
+      <c r="A1180">
+        <f t="shared" si="38"/>
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D1180">
+        <v>2026</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>4328</v>
+      </c>
+      <c r="F1180" s="8" t="s">
+        <v>4344</v>
+      </c>
+      <c r="G1180" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/biography.html#ZavalaA2026</v>
       </c>
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1181" s="7" t="s">
-        <v>4315</v>
+      <c r="A1181">
+        <f t="shared" si="38"/>
+        <v>1180</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D1181">
+        <v>2026</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>4331</v>
+      </c>
+      <c r="F1181" s="8" t="s">
+        <v>4345</v>
+      </c>
+      <c r="G1181" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/fields.html#MedinaK2026</v>
       </c>
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1182" s="7" t="s">
-        <v>4315</v>
+      <c r="A1182">
+        <f t="shared" si="38"/>
+        <v>1181</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D1182">
+        <v>1982</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>4333</v>
+      </c>
+      <c r="F1182" s="8" t="s">
+        <v>4346</v>
+      </c>
+      <c r="G1182" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/ecology.html#Carta1982a</v>
       </c>
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1183" s="7" t="s">
-        <v>4315</v>
+      <c r="A1183">
+        <f t="shared" si="38"/>
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>4335</v>
+      </c>
+      <c r="D1183">
+        <v>2016</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>4336</v>
+      </c>
+      <c r="F1183" s="8" t="s">
+        <v>4347</v>
+      </c>
+      <c r="G1183" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/MacreadyARBarringtonTW2016</v>
       </c>
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1184" s="7" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="1185" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F1185" s="7" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="1186" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <f t="shared" si="38"/>
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>4338</v>
+      </c>
+      <c r="D1184">
+        <v>2012</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F1184" s="8" t="s">
+        <v>4348</v>
+      </c>
+      <c r="G1184" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#AguileraO2012</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <f t="shared" si="38"/>
+        <v>1184</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>4340</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D1185">
+        <v>2015</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F1185" s="8" t="s">
+        <v>4349</v>
+      </c>
+      <c r="G1185" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PintoDetal2015</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1186" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1187" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1186" s="1"/>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1187" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1188" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1187" s="1"/>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1188" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1189" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1188" s="1"/>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1189" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1190" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1190" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1191" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1191" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1192" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1192" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1193" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1193" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1194" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1194" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1195" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1195" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1196" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1196" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1197" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1197" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1198" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1198" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1199" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1199" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1200" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1200" s="7" t="s">
         <v>4315</v>
       </c>

--- a/NotasGeologiaPublicationList_Updated.xlsx
+++ b/NotasGeologiaPublicationList_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EF645-4EFA-4C0F-96E8-2534A5CB06CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E228712C-930E-47B9-AD63-A37871EC47DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -13370,13 +13370,13 @@
     <t>https://mariantoc.github.io/ecology.html#Carta1982a</t>
   </si>
   <si>
-    <t>https://mariantoc.github.io/MacreadyARBarringtonTW2016</t>
-  </si>
-  <si>
     <t>https://mariantoc.github.io/stratigraphy.html#AguileraO2012</t>
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#PintoDetal2015</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#MacreadyARBarringtonTW2016</t>
   </si>
 </sst>
 </file>
@@ -42474,7 +42474,7 @@
         <v>4274</v>
       </c>
       <c r="G1152" s="1" t="str">
-        <f t="shared" ref="G1152:G1188" si="37">HYPERLINK(F1152)</f>
+        <f t="shared" ref="G1152:G1185" si="37">HYPERLINK(F1152)</f>
         <v>https://mariantoc.github.io/ecology.html#HoyosJ1982</v>
       </c>
     </row>
@@ -43145,7 +43145,7 @@
       <c r="E1179" t="s">
         <v>4325</v>
       </c>
-      <c r="F1179" s="8" t="s">
+      <c r="F1179" t="s">
         <v>4343</v>
       </c>
       <c r="G1179" s="1" t="str">
@@ -43170,7 +43170,7 @@
       <c r="E1180" t="s">
         <v>4328</v>
       </c>
-      <c r="F1180" s="8" t="s">
+      <c r="F1180" t="s">
         <v>4344</v>
       </c>
       <c r="G1180" s="1" t="str">
@@ -43195,7 +43195,7 @@
       <c r="E1181" t="s">
         <v>4331</v>
       </c>
-      <c r="F1181" s="8" t="s">
+      <c r="F1181" t="s">
         <v>4345</v>
       </c>
       <c r="G1181" s="1" t="str">
@@ -43217,7 +43217,7 @@
       <c r="E1182" t="s">
         <v>4333</v>
       </c>
-      <c r="F1182" s="8" t="s">
+      <c r="F1182" t="s">
         <v>4346</v>
       </c>
       <c r="G1182" s="1" t="str">
@@ -43243,11 +43243,11 @@
         <v>4336</v>
       </c>
       <c r="F1183" s="8" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="G1183" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>https://mariantoc.github.io/MacreadyARBarringtonTW2016</v>
+        <v>https://mariantoc.github.io/fields.html#MacreadyARBarringtonTW2016</v>
       </c>
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
@@ -43267,8 +43267,8 @@
       <c r="E1184" t="s">
         <v>4339</v>
       </c>
-      <c r="F1184" s="8" t="s">
-        <v>4348</v>
+      <c r="F1184" t="s">
+        <v>4347</v>
       </c>
       <c r="G1184" s="1" t="str">
         <f t="shared" si="37"/>
@@ -43292,8 +43292,8 @@
       <c r="E1185" t="s">
         <v>4342</v>
       </c>
-      <c r="F1185" s="8" t="s">
-        <v>4349</v>
+      <c r="F1185" t="s">
+        <v>4348</v>
       </c>
       <c r="G1185" s="1" t="str">
         <f t="shared" si="37"/>

--- a/NotasGeologiaPublicationList_Updated.xlsx
+++ b/NotasGeologiaPublicationList_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E228712C-930E-47B9-AD63-A37871EC47DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68638926-2CCC-4A8F-B1D6-BDF9E99E1589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="4350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="4373">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -13377,6 +13377,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/fields.html#MacreadyARBarringtonTW2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratigrafía por secuencias del Cretácico Superior en el subsuelo del área de Barinas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helenes Escamilla, J.; de Guerra, C.; Vásquez, J. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sinú – San Jacinto Basin and the Lower Magdalena Basin. Important contributions in geociences. </t>
+  </si>
+  <si>
+    <t>Corpoven S.A., Laboratorio de Geología, Gerencia de Exploración - Geología, Puerto La Cruz, Venezuela, 1995</t>
+  </si>
+  <si>
+    <t>MAYA, Revista de Geociencias, Febrero 2026</t>
+  </si>
+  <si>
+    <t>Palinología forense</t>
+  </si>
+  <si>
+    <t>Reservoir characterization of Morichal Member in the Cerro Negro Field. Challenges and opportunities in an extra heavy oil field in the Orinoco Belt, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez, I.; Velásquez, R.; Pinto, L.; Hernández, E.; Salazar – Langer, L.; Terán, Y.; Martínez, R.; Correa, D.; Korabelnikov, A.; Gobert, K. </t>
+  </si>
+  <si>
+    <t>Detrital Zircon geochronology of Paleocene / Eocene turbidites from Venezuela and offshore islands. Implications for Late Cretaceous subduction. Initiation along Leeward Islands and Aves Ridge. (Geocronología de zircones detríticos procedentes de las turbiditas del Paleoceno / Eoceno de Venezuela e islas costa afuera: Implicaciones en la subducción del Cretácico Tardío a lo largo de las Antillas de Sotavento y la Prominencia de Las Aves).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noguera, M.; Stedman, C.; First, E.; Lord, E.; Parrinello, A.; Wright, J. E.; Urbani, F. </t>
+  </si>
+  <si>
+    <t>GEOS, No. 40, pp. 29 – 30, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valoración de presiones de formación partiendo de niveles estáticos en el Campo Guafita, área sur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urdaneta S., Y. M. </t>
+  </si>
+  <si>
+    <t>Ciencia y Futuro, Volumen 7, Número 4, Diciembre – Febrero, 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas sobre algunas muestras de leche de luna de cuevas de Venezuela. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Espeleología, Volumen 8, Número 16, Octubre 1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#HelenesJetal1995</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#AlvarezA2026</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CastroM2026</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#RodriguezIetal2016</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#NogueraMetal2009</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/petrophysics.html#UrdanetaSYM2017</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/speleology.html#UrbaniF1977</t>
   </si>
 </sst>
 </file>
@@ -13787,8 +13856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
   <dimension ref="A1:H1230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1179" sqref="A1179"/>
+    <sheetView tabSelected="1" topLeftCell="A1176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1186" sqref="A1186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42474,13 +42543,13 @@
         <v>4274</v>
       </c>
       <c r="G1152" s="1" t="str">
-        <f t="shared" ref="G1152:G1185" si="37">HYPERLINK(F1152)</f>
+        <f t="shared" ref="G1152:G1192" si="37">HYPERLINK(F1152)</f>
         <v>https://mariantoc.github.io/ecology.html#HoyosJ1982</v>
       </c>
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153">
-        <f t="shared" ref="A1153:A1185" si="38">A1152+1</f>
+        <f t="shared" ref="A1153:A1192" si="38">A1152+1</f>
         <v>1152</v>
       </c>
       <c r="B1153" t="s">
@@ -43242,7 +43311,7 @@
       <c r="E1183" t="s">
         <v>4336</v>
       </c>
-      <c r="F1183" s="8" t="s">
+      <c r="F1183" t="s">
         <v>4349</v>
       </c>
       <c r="G1183" s="1" t="str">
@@ -43301,41 +43370,178 @@
       </c>
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1186" s="7" t="s">
-        <v>4315</v>
-      </c>
-      <c r="G1186" s="1"/>
+      <c r="A1186">
+        <f t="shared" si="38"/>
+        <v>1185</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>4351</v>
+      </c>
+      <c r="D1186">
+        <v>1995</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>4353</v>
+      </c>
+      <c r="F1186" s="8" t="s">
+        <v>4366</v>
+      </c>
+      <c r="G1186" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#HelenesJetal1995</v>
+      </c>
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1187" s="7" t="s">
-        <v>4315</v>
-      </c>
-      <c r="G1187" s="1"/>
+      <c r="A1187">
+        <f t="shared" si="38"/>
+        <v>1186</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>4352</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D1187">
+        <v>2026</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>4354</v>
+      </c>
+      <c r="F1187" s="8" t="s">
+        <v>4367</v>
+      </c>
+      <c r="G1187" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/topics.html#AlvarezA2026</v>
+      </c>
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1188" s="7" t="s">
-        <v>4315</v>
-      </c>
-      <c r="G1188" s="1"/>
+      <c r="A1188">
+        <f t="shared" si="38"/>
+        <v>1187</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>4355</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D1188">
+        <v>2026</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>4354</v>
+      </c>
+      <c r="F1188" s="8" t="s">
+        <v>4368</v>
+      </c>
+      <c r="G1188" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/topics.html#CastroM2026</v>
+      </c>
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1189" s="7" t="s">
-        <v>4315</v>
+      <c r="A1189">
+        <f t="shared" si="38"/>
+        <v>1188</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D1189">
+        <v>2016</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1189" s="8" t="s">
+        <v>4369</v>
+      </c>
+      <c r="G1189" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#RodriguezIetal2016</v>
       </c>
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1190" s="7" t="s">
-        <v>4315</v>
+      <c r="A1190">
+        <f t="shared" si="38"/>
+        <v>1189</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D1190">
+        <v>2009</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>4360</v>
+      </c>
+      <c r="F1190" s="8" t="s">
+        <v>4370</v>
+      </c>
+      <c r="G1190" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/geochemistry.html#NogueraMetal2009</v>
       </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1191" s="7" t="s">
-        <v>4315</v>
+      <c r="A1191">
+        <f t="shared" si="38"/>
+        <v>1190</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D1191">
+        <v>2017</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>4363</v>
+      </c>
+      <c r="F1191" s="8" t="s">
+        <v>4371</v>
+      </c>
+      <c r="G1191" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/petrophysics.html#UrdanetaSYM2017</v>
       </c>
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1192" s="7" t="s">
-        <v>4315</v>
+      <c r="A1192">
+        <f t="shared" si="38"/>
+        <v>1191</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D1192">
+        <v>1977</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F1192" s="8" t="s">
+        <v>4372</v>
+      </c>
+      <c r="G1192" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/speleology.html#UrbaniF1977</v>
       </c>
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">

--- a/NotasGeologiaPublicationList_Updated.xlsx
+++ b/NotasGeologiaPublicationList_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68638926-2CCC-4A8F-B1D6-BDF9E99E1589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90BC6A6-A806-40F0-B0E4-5672B45794CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="4373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="4400">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -13446,6 +13446,87 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/speleology.html#UrbaniF1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estratigrafía de Apure Occidental. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith, F. D.; Klioumis, S.; Bass, I. </t>
+  </si>
+  <si>
+    <t>Corpoven S.A., Junio de 1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porosidades en el Grupo Cogollo y su relación con los ambientes depositacionales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Méndez Baamonde </t>
+  </si>
+  <si>
+    <t>VII Congreso Geológico Venezolano Barquisimeto Memorias Tomo 2, p.868-889</t>
+  </si>
+  <si>
+    <t>El etiquetado geológico en cervezas artesanales: creatividad, expresión visual y ciencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús Porras Moreno </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias. Suplemento Febrero 2026.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela. </t>
+  </si>
+  <si>
+    <t>Víctor Dalton</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 100, Junio 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extreme geochemical variation accompanying diamond growth Guaniamo, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schulze, D. J.; Harte, B.; Valley, J. W.; Channer, D. </t>
+  </si>
+  <si>
+    <t>8th International Kimberlite Conference, Victoria, British Columbia, Canada, June 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring for a stratigraphic trap in Zulia Oriental, Western Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarzalejo, S.; Benkovics, L.; Carbón, J.; León, F.; Peňa, A. </t>
+  </si>
+  <si>
+    <t>EAGE, 64th Conference &amp; Exhibition, Florence, Italy, 27 – 30 May, 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geología glaciar del Alto Río Santo Domingo, Andes Venezolanos. </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 13, Número 9, Septiembre 1970</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SmithSDetal1984</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MendezJ1989</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#PorrasJ2026</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#DaltonLV1912</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#SchulzeDJetal2003</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SarzalejoSetal2002</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/glaciers.html#SchubertC1970</t>
   </si>
 </sst>
 </file>
@@ -13856,8 +13937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
   <dimension ref="A1:H1230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1186" sqref="A1186"/>
+    <sheetView tabSelected="1" topLeftCell="A1182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1193" sqref="A1193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42543,13 +42624,13 @@
         <v>4274</v>
       </c>
       <c r="G1152" s="1" t="str">
-        <f t="shared" ref="G1152:G1192" si="37">HYPERLINK(F1152)</f>
+        <f t="shared" ref="G1152:G1204" si="37">HYPERLINK(F1152)</f>
         <v>https://mariantoc.github.io/ecology.html#HoyosJ1982</v>
       </c>
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153">
-        <f t="shared" ref="A1153:A1192" si="38">A1152+1</f>
+        <f t="shared" ref="A1153:A1199" si="38">A1152+1</f>
         <v>1152</v>
       </c>
       <c r="B1153" t="s">
@@ -43386,7 +43467,7 @@
       <c r="E1186" t="s">
         <v>4353</v>
       </c>
-      <c r="F1186" s="8" t="s">
+      <c r="F1186" t="s">
         <v>4366</v>
       </c>
       <c r="G1186" s="1" t="str">
@@ -43411,7 +43492,7 @@
       <c r="E1187" t="s">
         <v>4354</v>
       </c>
-      <c r="F1187" s="8" t="s">
+      <c r="F1187" t="s">
         <v>4367</v>
       </c>
       <c r="G1187" s="1" t="str">
@@ -43436,7 +43517,7 @@
       <c r="E1188" t="s">
         <v>4354</v>
       </c>
-      <c r="F1188" s="8" t="s">
+      <c r="F1188" t="s">
         <v>4368</v>
       </c>
       <c r="G1188" s="1" t="str">
@@ -43461,7 +43542,7 @@
       <c r="E1189" t="s">
         <v>185</v>
       </c>
-      <c r="F1189" s="8" t="s">
+      <c r="F1189" t="s">
         <v>4369</v>
       </c>
       <c r="G1189" s="1" t="str">
@@ -43486,7 +43567,7 @@
       <c r="E1190" t="s">
         <v>4360</v>
       </c>
-      <c r="F1190" s="8" t="s">
+      <c r="F1190" t="s">
         <v>4370</v>
       </c>
       <c r="G1190" s="1" t="str">
@@ -43511,7 +43592,7 @@
       <c r="E1191" t="s">
         <v>4363</v>
       </c>
-      <c r="F1191" s="8" t="s">
+      <c r="F1191" t="s">
         <v>4371</v>
       </c>
       <c r="G1191" s="1" t="str">
@@ -43536,7 +43617,7 @@
       <c r="E1192" t="s">
         <v>4365</v>
       </c>
-      <c r="F1192" s="8" t="s">
+      <c r="F1192" t="s">
         <v>4372</v>
       </c>
       <c r="G1192" s="1" t="str">
@@ -43545,121 +43626,266 @@
       </c>
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1193" s="7" t="s">
-        <v>4315</v>
+      <c r="A1193">
+        <f t="shared" si="38"/>
+        <v>1192</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D1193">
+        <v>1984</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>4375</v>
+      </c>
+      <c r="F1193" s="8" t="s">
+        <v>4393</v>
+      </c>
+      <c r="G1193" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#SmithSDetal1984</v>
       </c>
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1194" s="7" t="s">
-        <v>4315</v>
+      <c r="A1194">
+        <f t="shared" si="38"/>
+        <v>1193</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1194">
+        <v>1989</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>4378</v>
+      </c>
+      <c r="F1194" s="8" t="s">
+        <v>4394</v>
+      </c>
+      <c r="G1194" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MendezJ1989</v>
       </c>
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1195" s="7" t="s">
-        <v>4315</v>
+      <c r="A1195">
+        <f t="shared" si="38"/>
+        <v>1194</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D1195">
+        <v>2026</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>4381</v>
+      </c>
+      <c r="F1195" s="8" t="s">
+        <v>4395</v>
+      </c>
+      <c r="G1195" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/topics.html#PorrasJ2026</v>
       </c>
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1196" s="7" t="s">
-        <v>4315</v>
+      <c r="A1196">
+        <f t="shared" si="38"/>
+        <v>1195</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D1196">
+        <v>1992</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>4384</v>
+      </c>
+      <c r="F1196" s="8" t="s">
+        <v>4396</v>
+      </c>
+      <c r="G1196" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/biography.html#DaltonLV1912</v>
       </c>
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1197" s="7" t="s">
-        <v>4315</v>
+      <c r="A1197">
+        <f t="shared" si="38"/>
+        <v>1196</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D1197">
+        <v>2003</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>4387</v>
+      </c>
+      <c r="F1197" s="8" t="s">
+        <v>4397</v>
+      </c>
+      <c r="G1197" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/minerals.html#SchulzeDJetal2003</v>
       </c>
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1198" s="7" t="s">
-        <v>4315</v>
+      <c r="A1198">
+        <f t="shared" si="38"/>
+        <v>1197</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D1198">
+        <v>2002</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>4390</v>
+      </c>
+      <c r="F1198" s="8" t="s">
+        <v>4398</v>
+      </c>
+      <c r="G1198" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#SarzalejoSetal2002</v>
       </c>
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1199" s="7" t="s">
-        <v>4315</v>
+      <c r="A1199">
+        <f t="shared" si="38"/>
+        <v>1198</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1199">
+        <v>1970</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>4392</v>
+      </c>
+      <c r="F1199" s="8" t="s">
+        <v>4399</v>
+      </c>
+      <c r="G1199" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>https://mariantoc.github.io/glaciers.html#SchubertC1970</v>
       </c>
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1200" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1201" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1200" s="1"/>
+    </row>
+    <row r="1201" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1201" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1202" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1201" s="1"/>
+    </row>
+    <row r="1202" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1202" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1203" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1202" s="1"/>
+    </row>
+    <row r="1203" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1203" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1204" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1203" s="1"/>
+    </row>
+    <row r="1204" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1204" s="7" t="s">
         <v>4315</v>
       </c>
-    </row>
-    <row r="1205" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="G1204" s="1"/>
+    </row>
+    <row r="1205" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1205" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1206" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1206" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1206" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1207" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1207" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1207" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1208" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1208" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1208" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1209" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1209" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1209" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1210" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1210" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1210" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1211" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1211" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1211" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1212" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1212" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1212" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1213" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1213" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1213" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1214" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1214" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1214" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1215" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1215" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1215" s="7" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="1216" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="1216" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F1216" s="7" t="s">
         <v>4315</v>
       </c>
